--- a/output/期货量化实践_合约最后交易日期(暂存).xlsx
+++ b/output/期货量化实践_合约最后交易日期(暂存).xlsx
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45553</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="42">
